--- a/scrum/Sprint Reports/Sprint_Templates/SX_Sprint_Backlog.xlsx
+++ b/scrum/Sprint Reports/Sprint_Templates/SX_Sprint_Backlog.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365.sharepoint.com/sites/TBDA-Group1/Shared Documents/Sprint_Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\GitHub\2025G1\scrum\Sprint Reports\Sprint_Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="11_054DE6BAD61F3E7098CC5C003D11A9F13DED4102" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6359D5E-AD31-4DD8-9F76-DDE41048B19C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B48C371-7674-473F-BBF8-36B60F2AA263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
-    <sheet name="Daily Scrum" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -60,12 +59,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Estimated Effort (h)</t>
-  </si>
-  <si>
-    <t>Actual Effort (h)</t>
-  </si>
-  <si>
     <t>Notes / Blockers</t>
   </si>
   <si>
@@ -99,9 +92,6 @@
     <t>Done</t>
   </si>
   <si>
-    <t xml:space="preserve">SPRINT GOAL : </t>
-  </si>
-  <si>
     <t>SPRINT :</t>
   </si>
   <si>
@@ -111,32 +101,89 @@
     <t>TO :</t>
   </si>
   <si>
-    <t>Describe the sprint goal</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Sprint Backlog Task ID</t>
-  </si>
-  <si>
-    <t>Task Description</t>
-  </si>
-  <si>
-    <t>Time Spent (h)</t>
-  </si>
-  <si>
-    <t>Work Done / Notes</t>
-  </si>
-  <si>
-    <t>GitHub Updated? (Yes/No)</t>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Data Environment Setup</t>
+  </si>
+  <si>
+    <t>Setup of data extraction and cleaning environment.</t>
+  </si>
+  <si>
+    <t>Data Team</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Efficient workflow reported.</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Relevant Day Logic</t>
+  </si>
+  <si>
+    <t>Implemented Method 1 (max records) and Method 2 (deciles) to select representative days.</t>
+  </si>
+  <si>
+    <t>Method 2 is considered robust and representative.</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>Machine State Detection (v1)</t>
+  </si>
+  <si>
+    <t>Initial proposal using 6 variables and dynamic thresholds to detect Working/Idle states.</t>
+  </si>
+  <si>
+    <t>Partial</t>
+  </si>
+  <si>
+    <t>Limited robustness; need to test with more variables.</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>Backend Initialization</t>
+  </si>
+  <si>
+    <t>Start working on backend structure.</t>
+  </si>
+  <si>
+    <t>Backend Team</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Postponed</t>
+  </si>
+  <si>
+    <t>Postponed until the data layer stabilizes.</t>
+  </si>
+  <si>
+    <t>Define interface requirements, implement the first requirement "display operational status" on the data layer, and initiate backend structure.</t>
+  </si>
+  <si>
+    <t>Sprint goal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,12 +195,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -175,7 +216,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -234,67 +275,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -392,97 +372,256 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -818,301 +957,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:OC11"/>
+  <dimension ref="A1:OA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="28.42578125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="22" style="10" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="28.42578125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:393" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:391" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1"/>
+    </row>
+    <row r="2" spans="1:391" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="2">
+        <v>45929</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:391" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="3">
+        <v>45943</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:391" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:391" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:391" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:391" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21">
+      <c r="B7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="NY7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="NZ7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="OA7" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:391" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="13">
         <v>1</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="2"/>
+      <c r="C8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="NY8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="NZ8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="OA8" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:393" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="22">
-        <v>45929</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="2"/>
+    <row r="9" spans="1:391" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="13">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="NY9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="NZ9" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:393" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25">
-        <v>45943</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:393" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:393" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:393" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:393" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:393" x14ac:dyDescent="0.25">
-      <c r="OA8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="OB8" t="s">
-        <v>11</v>
-      </c>
-      <c r="OC8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:393" x14ac:dyDescent="0.25">
-      <c r="OA9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="OB9" t="s">
-        <v>14</v>
-      </c>
-      <c r="OC9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:393" x14ac:dyDescent="0.25">
-      <c r="OA10" s="12" t="s">
+    <row r="10" spans="1:391" s="8" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="NY10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="OB10" t="s">
+      <c r="NZ10" s="8" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:393" x14ac:dyDescent="0.25">
-      <c r="OA11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="OB11" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="D1:E3"/>
-    <mergeCell ref="F1:I3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E1:G3"/>
+    <mergeCell ref="D1:D3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F1048576" xr:uid="{586FCF15-B317-4B39-A390-CE09CEDC9B97}">
-      <formula1>$OA$8:$OA$11</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F1048576" xr:uid="{586FCF15-B317-4B39-A390-CE09CEDC9B97}">
+      <formula1>$NY$7:$NY$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G1048576" xr:uid="{604268E2-3C13-466C-B56C-FBCC54208FE9}">
-      <formula1>$OB$8:$OB$11</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G1048576" xr:uid="{604268E2-3C13-466C-B56C-FBCC54208FE9}">
+      <formula1>$NZ$7:$NZ$10</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A05B2CF-6035-4CE1-A2D1-C8694BB6A05A}">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="7" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="69.42578125" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1254,14 +1374,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224174C7-4B58-4093-9BF8-A2F23AEBFECC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A4F87DD-4EFD-4515-A302-76AC09BEB1C1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1273,6 +1385,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224174C7-4B58-4093-9BF8-A2F23AEBFECC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
